--- a/data/trans_bre/P15-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.30869056062211</v>
+        <v>-1.305698638606541</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.72067780894728</v>
+        <v>-1.843904833996376</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.9881774160199929</v>
+        <v>-0.9684748672439257</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.34629583067908</v>
+        <v>0.908804499215738</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2096253498144399</v>
+        <v>-0.2054131858455575</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.187534132466684</v>
+        <v>-0.2017644336541744</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1547731425461238</v>
+        <v>-0.1431899698617364</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1561193759838087</v>
+        <v>0.1077007351754452</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.57809744864449</v>
+        <v>2.329796105574863</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.895935299640747</v>
+        <v>2.818424038772535</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.027182842925411</v>
+        <v>3.897535885135237</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.250563399380284</v>
+        <v>5.861396850440387</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5800075556945526</v>
+        <v>0.5166558464266993</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4622008780344593</v>
+        <v>0.4292977778606545</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8124155461453414</v>
+        <v>0.7332597056626039</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.205783384885082</v>
+        <v>1.147141800834375</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.633755667367207</v>
+        <v>-5.840217305802487</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.669629013699281</v>
+        <v>-4.572494377358896</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.048721950915077</v>
+        <v>-2.918089566414634</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.656889718445912</v>
+        <v>-2.77294613970711</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6034233235387508</v>
+        <v>-0.6122616647173382</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.445714531626137</v>
+        <v>-0.4480882436138346</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.468104909515633</v>
+        <v>-0.4427633430464284</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3707943406819368</v>
+        <v>-0.3795089319295213</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-2.22046474646516</v>
+        <v>-2.333763291929319</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.8803841908871936</v>
+        <v>-1.003598424628027</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.2767551530333132</v>
+        <v>-0.01607906767259197</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3143149714316102</v>
+        <v>0.2260877151290773</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2788182126928198</v>
+        <v>-0.3055826745317951</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.09385714898134646</v>
+        <v>-0.1202958829608559</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.04428586889103629</v>
+        <v>-0.0007826195789556557</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.05568368510222497</v>
+        <v>0.03304733839293829</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.01530798103171332</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.060452005161287</v>
+        <v>-1.060452005161285</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.3418111388273745</v>
@@ -849,7 +849,7 @@
         <v>0.002718429041799425</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1810964639733215</v>
+        <v>-0.1810964639733213</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.850334253369692</v>
+        <v>-5.693512020952512</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.482453561852801</v>
+        <v>-1.962370992120796</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.821509247174959</v>
+        <v>-3.11902229856076</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.87582754151564</v>
+        <v>-3.75995643621173</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6362908282571876</v>
+        <v>-0.6151264218116688</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.36483413092008</v>
+        <v>-0.3024815425217633</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4034994866954055</v>
+        <v>-0.4428836873453089</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4903450144800975</v>
+        <v>-0.4688851882006024</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4178889179404723</v>
+        <v>0.5302447554724542</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.002445741789288</v>
+        <v>4.233984886486063</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.231370969366753</v>
+        <v>3.071239454158218</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.334019701195411</v>
+        <v>1.270771746947951</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07544898393891497</v>
+        <v>0.0967040710540068</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9573711447546519</v>
+        <v>1.098135302123665</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7992629927102808</v>
+        <v>0.7384712511230892</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3299194148448384</v>
+        <v>0.3200139169007531</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-0.4322254331634113</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.05094052469558838</v>
+        <v>-0.05094052469558977</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.3003163782356497</v>
@@ -949,7 +949,7 @@
         <v>-0.07385173074302481</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.008162112174365658</v>
+        <v>-0.00816211217436588</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.401829569457589</v>
+        <v>-3.408739370484315</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.499979837664657</v>
+        <v>-2.586000743982316</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.50477675959294</v>
+        <v>-1.656502907133843</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.23482832778409</v>
+        <v>-1.255524358849702</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4236874521987778</v>
+        <v>-0.4151805963247248</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2679610050983001</v>
+        <v>-0.2848990082157509</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2352122444563764</v>
+        <v>-0.2584160707357596</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1776221359994986</v>
+        <v>-0.1778939325999375</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-1.014053507580381</v>
+        <v>-1.039470510501139</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1205499105070293</v>
+        <v>0.09678611950660508</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7537907881982833</v>
+        <v>0.6722390185262588</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.093158860451453</v>
+        <v>1.050240468517928</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1520796947008405</v>
+        <v>-0.1446612666586596</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01904187288320049</v>
+        <v>0.01276336754263943</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1460824172704359</v>
+        <v>0.1240301485724416</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2003154019677653</v>
+        <v>0.1932178808863119</v>
       </c>
     </row>
     <row r="16">
